--- a/Remises/Remise 4/DPF.xlsx
+++ b/Remises/Remise 4/DPF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles-Olivier\Documents\design3\Remises\Remise 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaetan\Documents\GitHub\design3\Remises\Remise 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="8025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="8028"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -616,6 +616,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,6 +643,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,80 +709,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,7 +736,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1004,164 +1004,164 @@
   <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK33" sqref="AK33"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="139.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" customWidth="1"/>
-    <col min="12" max="12" width="33.28515625" customWidth="1"/>
-    <col min="13" max="14" width="36.7109375" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="120.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="6" width="37.5546875" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.88671875" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" customWidth="1"/>
+    <col min="13" max="14" width="36.6640625" customWidth="1"/>
+    <col min="15" max="15" width="25.88671875" customWidth="1"/>
     <col min="16" max="16" width="27" customWidth="1"/>
-    <col min="17" max="17" width="29.140625" customWidth="1"/>
-    <col min="18" max="18" width="46.7109375" customWidth="1"/>
-    <col min="19" max="19" width="45.42578125" customWidth="1"/>
-    <col min="20" max="20" width="28.7109375" customWidth="1"/>
-    <col min="21" max="21" width="53.28515625" customWidth="1"/>
-    <col min="22" max="22" width="34.140625" customWidth="1"/>
-    <col min="23" max="23" width="26.85546875" customWidth="1"/>
-    <col min="24" max="24" width="31.85546875" customWidth="1"/>
-    <col min="25" max="25" width="35.5703125" customWidth="1"/>
-    <col min="26" max="26" width="26.5703125" customWidth="1"/>
-    <col min="27" max="27" width="27.85546875" customWidth="1"/>
-    <col min="28" max="28" width="40.5703125" customWidth="1"/>
+    <col min="17" max="17" width="29.109375" customWidth="1"/>
+    <col min="18" max="18" width="46.6640625" customWidth="1"/>
+    <col min="19" max="19" width="45.44140625" customWidth="1"/>
+    <col min="20" max="20" width="28.6640625" customWidth="1"/>
+    <col min="21" max="21" width="53.33203125" customWidth="1"/>
+    <col min="22" max="22" width="34.109375" customWidth="1"/>
+    <col min="23" max="23" width="26.88671875" customWidth="1"/>
+    <col min="24" max="24" width="31.88671875" customWidth="1"/>
+    <col min="25" max="25" width="35.5546875" customWidth="1"/>
+    <col min="26" max="26" width="26.5546875" customWidth="1"/>
+    <col min="27" max="27" width="27.88671875" customWidth="1"/>
+    <col min="28" max="28" width="40.5546875" customWidth="1"/>
     <col min="29" max="29" width="30" customWidth="1"/>
-    <col min="30" max="30" width="38.28515625" customWidth="1"/>
-    <col min="31" max="31" width="32.140625" customWidth="1"/>
+    <col min="30" max="30" width="38.33203125" customWidth="1"/>
+    <col min="31" max="31" width="32.109375" customWidth="1"/>
     <col min="32" max="32" width="37" customWidth="1"/>
-    <col min="33" max="33" width="39.85546875" customWidth="1"/>
-    <col min="34" max="34" width="39.140625" customWidth="1"/>
-    <col min="35" max="35" width="25.85546875" customWidth="1"/>
+    <col min="33" max="33" width="39.88671875" customWidth="1"/>
+    <col min="34" max="34" width="39.109375" customWidth="1"/>
+    <col min="35" max="35" width="25.88671875" customWidth="1"/>
     <col min="36" max="36" width="39" customWidth="1"/>
-    <col min="37" max="37" width="40.28515625" customWidth="1"/>
-    <col min="38" max="38" width="40.7109375" customWidth="1"/>
+    <col min="37" max="37" width="40.33203125" customWidth="1"/>
+    <col min="38" max="38" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="38" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="14" t="s">
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="14" t="s">
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="14" t="s">
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="14" t="s">
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="16"/>
-    </row>
-    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="19"/>
+    </row>
+    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="17" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="17" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="17" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="17" t="s">
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="17" t="s">
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="19"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="22"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="12" t="s">
         <v>33</v>
       </c>
@@ -1184,10 +1184,10 @@
         <v>83</v>
       </c>
       <c r="O3" s="37"/>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="23" t="s">
         <v>84</v>
       </c>
       <c r="R3" s="8" t="s">
@@ -1196,22 +1196,22 @@
       <c r="S3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="33"/>
+      <c r="U3" s="35"/>
       <c r="V3" s="11" t="s">
         <v>89</v>
       </c>
       <c r="W3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="26" t="s">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="23" t="s">
         <v>14</v>
       </c>
       <c r="AB3" s="12" t="s">
@@ -1220,10 +1220,10 @@
       <c r="AC3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AD3" s="28" t="s">
+      <c r="AD3" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" s="29"/>
+      <c r="AE3" s="47"/>
       <c r="AF3" s="12" t="s">
         <v>95</v>
       </c>
@@ -1243,15 +1243,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="35"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="6" t="s">
         <v>32</v>
       </c>
@@ -1270,38 +1270,38 @@
       <c r="M4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
       <c r="R4" s="6" t="s">
         <v>87</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="34"/>
-      <c r="U4" s="35"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="33"/>
       <c r="V4" s="10" t="s">
         <v>90</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="27"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="24"/>
       <c r="AB4" s="6" t="s">
         <v>93</v>
       </c>
       <c r="AC4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD4" s="30" t="s">
+      <c r="AD4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AE4" s="31"/>
+      <c r="AE4" s="16"/>
       <c r="AF4" s="6" t="s">
         <v>40</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>102</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>68</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>104</v>
       </c>
@@ -1860,7 +1860,7 @@
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1909,7 +1909,7 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
@@ -2223,7 +2223,7 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="AK21" s="2"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2599,31 +2599,16 @@
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AG2:AK2"/>
     <mergeCell ref="X3:Z4"/>
@@ -2634,6 +2619,21 @@
     <mergeCell ref="AB2:AF2"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
